--- a/result/23_pred.xlsx
+++ b/result/23_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,210 +447,114 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>179670.8904880771</v>
+        <v>179690.5658659085</v>
       </c>
       <c r="B2" t="n">
-        <v>123550.6262503317</v>
+        <v>123540.0017735355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>179653.6547207572</v>
+        <v>179667.5848428152</v>
       </c>
       <c r="B3" t="n">
-        <v>123575.180849186</v>
+        <v>123572.7412386745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>179636.4189534372</v>
+        <v>179644.603819722</v>
       </c>
       <c r="B4" t="n">
-        <v>123599.7354480402</v>
+        <v>123605.4807038135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>179712.6808542513</v>
+        <v>179723.3053310475</v>
       </c>
       <c r="B5" t="n">
-        <v>123543.3074187974</v>
+        <v>123562.9827966288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>179695.4450869314</v>
+        <v>179700.3243079543</v>
       </c>
       <c r="B6" t="n">
-        <v>123567.8620176516</v>
+        <v>123595.7222617678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>179678.2093196114</v>
+        <v>179677.343284861</v>
       </c>
       <c r="B7" t="n">
-        <v>123592.4166165059</v>
+        <v>123628.4617269068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>179660.9735522915</v>
+        <v>179654.3622617678</v>
       </c>
       <c r="B8" t="n">
-        <v>123616.9712153601</v>
+        <v>123661.2011920458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>179643.7377849716</v>
+        <v>179779.0258192797</v>
       </c>
       <c r="B9" t="n">
-        <v>123641.5258142144</v>
+        <v>123553.224354583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>179754.4712204255</v>
+        <v>179756.0447961865</v>
       </c>
       <c r="B10" t="n">
-        <v>123535.9885872631</v>
+        <v>123585.963819722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>179737.2354531056</v>
+        <v>179733.0637730933</v>
       </c>
       <c r="B11" t="n">
-        <v>123560.5431861173</v>
+        <v>123618.703284861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>179719.9996857856</v>
+        <v>179710.08275</v>
       </c>
       <c r="B12" t="n">
-        <v>123585.0977849716</v>
+        <v>123651.44275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>179702.7639184657</v>
+        <v>179687.1017269068</v>
       </c>
       <c r="B13" t="n">
-        <v>123609.6523838258</v>
+        <v>123684.182215139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>179685.5281511458</v>
+        <v>179664.1207038135</v>
       </c>
       <c r="B14" t="n">
-        <v>123634.2069826801</v>
+        <v>123716.921680278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>179668.2923838258</v>
+        <v>179641.1396807203</v>
       </c>
       <c r="B15" t="n">
-        <v>123658.7615815343</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>179651.0566165059</v>
-      </c>
-      <c r="B16" t="n">
-        <v>123683.3161803886</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>179779.0258192797</v>
-      </c>
-      <c r="B17" t="n">
-        <v>123553.224354583</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>179761.7900519598</v>
-      </c>
-      <c r="B18" t="n">
-        <v>123577.7789534373</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>179744.5542846399</v>
-      </c>
-      <c r="B19" t="n">
-        <v>123602.3335522915</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>179727.3185173199</v>
-      </c>
-      <c r="B20" t="n">
-        <v>123626.8881511458</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>179710.08275</v>
-      </c>
-      <c r="B21" t="n">
-        <v>123651.44275</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>179692.8469826801</v>
-      </c>
-      <c r="B22" t="n">
-        <v>123675.9973488542</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>179675.6112153601</v>
-      </c>
-      <c r="B23" t="n">
-        <v>123700.5519477085</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>179658.3754480402</v>
-      </c>
-      <c r="B24" t="n">
-        <v>123725.1065465627</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>179641.1396807203</v>
-      </c>
-      <c r="B25" t="n">
         <v>123749.661145417</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>179623.9039134003</v>
-      </c>
-      <c r="B26" t="n">
-        <v>123774.2157442712</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>179700.1658142144</v>
-      </c>
-      <c r="B27" t="n">
-        <v>123717.7877150284</v>
       </c>
     </row>
   </sheetData>
